--- a/CarteFournisseur.xlsx
+++ b/CarteFournisseur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perso\Coopaz\CarteFournisseurs\OSM2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabien.hicauber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23AB227-714E-4E1F-BE34-9210E0C7D089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED69AE6-CB70-4159-9D84-28B31F92393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="60" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fournisseurs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="538">
   <si>
     <t>Nom</t>
   </si>
@@ -1578,105 +1578,6 @@
   </si>
   <si>
     <t>https://i.imgur.com/tsWXLi8.png</t>
-  </si>
-  <si>
-    <t>Larrunkoop</t>
-  </si>
-  <si>
-    <t>5 Rue Dongaitz Anaiak</t>
-  </si>
-  <si>
-    <t>Urrugne</t>
-  </si>
-  <si>
-    <t>larrunkoop@gmail.com</t>
-  </si>
-  <si>
-    <t>17:00-19:30</t>
-  </si>
-  <si>
-    <t>08:00-13h30;17:00-19:30</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/A7Erygp.png</t>
-  </si>
-  <si>
-    <t>Larrunkoop II</t>
-  </si>
-  <si>
-    <t>33 Rue Aristide Bourousse</t>
-  </si>
-  <si>
-    <t>Ciboure</t>
-  </si>
-  <si>
-    <t>09:00-15:00;17:00-20:00</t>
-  </si>
-  <si>
-    <t>11:00-14:00;17:00-20:00</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/GL6qg5x.png</t>
-  </si>
-  <si>
-    <t>MiaKoop</t>
-  </si>
-  <si>
-    <t>115 Av. d'Espagne</t>
-  </si>
-  <si>
-    <t>Anglet</t>
-  </si>
-  <si>
-    <t>06 45 80 62 40</t>
-  </si>
-  <si>
-    <t>17:30-19:30</t>
-  </si>
-  <si>
-    <t>09:30-12:30</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/TgzgAzR.png</t>
-  </si>
-  <si>
-    <t>Arruntzakoop</t>
-  </si>
-  <si>
-    <t>201 route de l'églie</t>
-  </si>
-  <si>
-    <t>Ustaritz</t>
-  </si>
-  <si>
-    <t>9:00-12:00</t>
-  </si>
-  <si>
-    <t>9:30-12:30;17:00-20:00</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/N0rhixa.png</t>
-  </si>
-  <si>
-    <t>Beness'coop</t>
-  </si>
-  <si>
-    <t>18 rue Maurice genevoix</t>
-  </si>
-  <si>
-    <t>benesse maremne</t>
-  </si>
-  <si>
-    <t>16:30-19:30</t>
-  </si>
-  <si>
-    <t>fer</t>
-  </si>
-  <si>
-    <t>9:30-:12:30</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/gxqW10G.png</t>
   </si>
   <si>
     <t>LabelColor</t>
@@ -2158,7 +2059,7 @@
   <dimension ref="A1:M970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2201,10 +2102,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -17492,7 +17393,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17541,10 +17442,10 @@
         <v>492</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17694,246 +17595,95 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="1">
-        <v>64122</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="O5" s="6">
-        <v>43.362798400000003</v>
-      </c>
-      <c r="P5" s="6">
-        <v>-1.6987943999999999</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C6" s="1">
-        <v>64500</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>523</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O6" s="6">
-        <v>43.382725200000003</v>
-      </c>
-      <c r="P6" s="6">
-        <v>-1.6648782</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C7" s="1">
-        <v>64600</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>530</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="O7" s="6">
-        <v>43.471919499999998</v>
-      </c>
-      <c r="P7" s="6">
-        <v>-1.5336179999999999</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C8" s="1">
-        <v>64480</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="O8" s="6">
-        <v>43.422319399999999</v>
-      </c>
-      <c r="P8" s="6">
-        <v>-1.4792544000000001</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="1">
-        <v>40230</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E9" s="1">
-        <v>650742368</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="O9" s="6">
-        <v>43.635193100000002</v>
-      </c>
-      <c r="P9" s="6">
-        <v>-1.3612272999999999</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="N6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="N7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="N8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="N9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17966,7 +17716,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17974,7 +17724,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -17983,7 +17733,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17991,16 +17741,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18008,7 +17758,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -18017,7 +17767,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18025,13 +17775,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18039,13 +17789,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18053,13 +17803,13 @@
         <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18067,7 +17817,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18075,7 +17825,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18083,7 +17833,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18091,15 +17841,15 @@
         <v>288</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -18136,7 +17886,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -18276,7 +18026,7 @@
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
